--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\ActGIT\tools\xlsx2pbt\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ProtoTypeName: "test.ActorFile" RowFieldName: "Actor"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>超能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Fighter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;6;7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -87,12 +79,63 @@
   </si>
   <si>
     <t>StrStruct</t>
+  </si>
+  <si>
+    <t>4,6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP: 2 AttackRate: 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑猫警长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邋遢大王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +230,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,69 +515,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="4" max="6" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" t="str">
-        <f>"名称" &amp;A4</f>
-        <v>名称100</v>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -539,86 +601,81 @@
       <c r="D4" s="4">
         <v>0.6</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>101</v>
       </c>
-      <c r="B5" t="str">
-        <f>"名称" &amp;A5</f>
-        <v>名称101</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>0.8</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>102</v>
       </c>
-      <c r="B6" t="str">
-        <f>"名称" &amp;A6</f>
-        <v>名称102</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>0.7</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>103</v>
       </c>
-      <c r="B7" t="str">
-        <f>"名称" &amp;A7</f>
-        <v>名称103</v>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>205</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>104</v>
       </c>
-      <c r="B8" t="str">
-        <f>"名称" &amp;A8</f>
-        <v>名称104</v>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>105</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"名称" &amp;A9</f>
-        <v>名称105</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" t="s">
+      <c r="G8" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -109,14 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>葫芦娃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>贝塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +118,14 @@
   </si>
   <si>
     <t>BuffID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦\n娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒"克"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,10 +548,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -613,7 +613,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
         <v>0.8</v>
@@ -636,7 +636,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
         <v>0.7</v>
@@ -653,7 +653,7 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>205</v>
@@ -665,7 +665,7 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贝塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>邋遢大王</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,11 @@
   </si>
   <si>
     <t>舒"克"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝
+塔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +235,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -613,7 +617,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>0.8</v>
@@ -636,7 +640,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>0.7</v>
@@ -648,12 +652,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C7">
         <v>205</v>
@@ -665,7 +669,7 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ProtoTypeName: "test.ActorFile" RowFieldName: "Actor"</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HP: 2 AttackRate: 0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黑猫警长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +123,26 @@
   <si>
     <t>贝
 塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrStruct.AttackRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP: 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP: 3 AttackRate: 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构字段独立填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个单元格永远是一个值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,14 +547,16 @@
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="6" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -552,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -566,8 +584,14 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,13 +615,19 @@
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -612,12 +642,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>0.8</v>
@@ -635,12 +665,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <v>0.7</v>
@@ -649,27 +679,33 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>205</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -678,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F9" s="5"/>
     </row>
   </sheetData>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -130,19 +130,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>结构字段独立填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量: 3 攻击速率: 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>HP: 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP: 3 AttackRate: 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构字段独立填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个单元格永远是一个值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,10 +616,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>0.5</v>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opensource\src\github.com\davyxu\tabtoy\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能ID列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串结构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,12 +134,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中文字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HP: 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义别名之中文字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,9 +241,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -538,16 +535,17 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="6" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -585,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -609,14 +607,14 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>28</v>
@@ -627,12 +625,12 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.6</v>
       </c>
       <c r="G4" t="s">
@@ -647,9 +645,9 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.8</v>
       </c>
       <c r="E5">
@@ -670,44 +668,44 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.7</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>103</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>205</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -715,7 +713,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test/Actor.xlsx
+++ b/test/Actor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opensource\src\github.com\davyxu\tabtoy\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>血量: 3 攻击速率: 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HP: 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -144,6 +140,10 @@
   <si>
     <t>技能ID列表</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量: 3 攻击速率: 1 额外类型:超能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -677,13 +677,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
